--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA726F9F-AB9B-8942-B03C-C9094C6B0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0450E990-30DC-B642-A786-5A2364071330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="25760" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39980" yWindow="-2180" windowWidth="25760" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETO Use" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>Hoareau/Youngquist</t>
+  </si>
+  <si>
+    <t>CL000</t>
+  </si>
+  <si>
+    <t>cath_lab</t>
+  </si>
+  <si>
+    <t>Cath Lab Official Use</t>
+  </si>
+  <si>
+    <t>official</t>
   </si>
 </sst>
 </file>
@@ -526,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1317,7 @@
         <v>0.25</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F46" si="1">E37*40</f>
+        <f t="shared" ref="F37:F51" si="1">E37*40</f>
         <v>10</v>
       </c>
     </row>
@@ -1472,6 +1484,101 @@
       <c r="F46">
         <f t="shared" si="1"/>
         <v>13.333333199999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" ref="E48:E51" si="2">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1483,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1512,102 +1619,102 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -1616,34 +1723,48 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
     </row>

--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0450E990-30DC-B642-A786-5A2364071330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8A3AB-BD9D-7949-BFF9-0FC21BF1F312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39980" yWindow="-2180" windowWidth="25760" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="1080" windowWidth="20500" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETO Use" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,45 @@
   </si>
   <si>
     <t>official</t>
+  </si>
+  <si>
+    <t>MRE541</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>emergency medicine</t>
+  </si>
+  <si>
+    <t>radiology</t>
+  </si>
+  <si>
+    <t>cardiology</t>
+  </si>
+  <si>
+    <t>CL013</t>
+  </si>
+  <si>
+    <t>CL011</t>
+  </si>
+  <si>
+    <t>CL012</t>
+  </si>
+  <si>
+    <t>Guillaume Hoareau</t>
+  </si>
+  <si>
+    <t>Improving mitochondrial function to mitigate ischemia-reperfusion injury from aortic occlusion in a swine model of hemorrhagic shock.</t>
+  </si>
+  <si>
+    <t>The mechanisms of GJA1 protection after resuscitation and mitochondrial protection in a pig model of polytrauma</t>
+  </si>
+  <si>
+    <t>Physiologic signatures for endovascular intervention for trauma</t>
+  </si>
+  <si>
+    <t>Silverton/Hoareau</t>
   </si>
 </sst>
 </file>
@@ -538,15 +577,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="2"/>
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1317,7 +1356,7 @@
         <v>0.25</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F51" si="1">E37*40</f>
+        <f t="shared" ref="F37:F56" si="1">E37*40</f>
         <v>10</v>
       </c>
     </row>
@@ -1516,7 +1555,7 @@
         <v>16</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" ref="E48:E51" si="2">1/3</f>
+        <f t="shared" ref="E48:E49" si="2">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F48">
@@ -1580,6 +1619,84 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" ref="E54:E55" si="3">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,20 +1707,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="136" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="136" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1614,10 +1731,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1628,12 +1748,15 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1642,93 +1765,114 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -1737,35 +1881,112 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8A3AB-BD9D-7949-BFF9-0FC21BF1F312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD61B625-3ED3-9644-A316-A36234A2764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1080" windowWidth="20500" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="1080" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETO Use" sheetId="1" r:id="rId1"/>
     <sheet name="CL Codes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="eto_use_alt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,36 @@
   </si>
   <si>
     <t>Silverton/Hoareau</t>
+  </si>
+  <si>
+    <t>CL007, CL002</t>
+  </si>
+  <si>
+    <t>CL003, CL002, CL001, CL007</t>
+  </si>
+  <si>
+    <t>CL002, CL007</t>
+  </si>
+  <si>
+    <t>CL003, CL001, CL007, CL002, CL006</t>
+  </si>
+  <si>
+    <t>CL003, CL006, CL001, CL002</t>
+  </si>
+  <si>
+    <t>CL003, CL001, CL006, CL002</t>
+  </si>
+  <si>
+    <t>CL001, CL004, CL006</t>
+  </si>
+  <si>
+    <t>CL010, CL001, CL000</t>
+  </si>
+  <si>
+    <t>CL010, CL001</t>
+  </si>
+  <si>
+    <t>CL010, CL001, CL013</t>
   </si>
 </sst>
 </file>
@@ -579,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1386,7 @@
         <v>0.25</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F56" si="1">E37*40</f>
+        <f t="shared" ref="F37:F55" si="1">E37*40</f>
         <v>10</v>
       </c>
     </row>
@@ -1709,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1997,12 +2027,237 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD61B625-3ED3-9644-A316-A36234A2764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A061CA46-0BB2-4840-9C1B-EA8C53FA2A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1080" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>CL010, CL001, CL013</t>
+  </si>
+  <si>
+    <t>IACUC</t>
+  </si>
+  <si>
+    <t>CL010, CL001, CL007</t>
   </si>
 </sst>
 </file>
@@ -610,7 +616,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:XFD1048576"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1737,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1750,7 +1756,7 @@
     <col min="5" max="5" width="136" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1766,8 +1772,11 @@
       <c r="E1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1784,7 +1793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1817,8 +1826,11 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1835,7 +1847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1851,8 +1863,11 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1883,7 +1898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1900,7 +1915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1917,7 +1932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1951,7 +1966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1967,8 +1982,11 @@
       <c r="E13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1984,8 +2002,11 @@
       <c r="E14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2001,8 +2022,11 @@
       <c r="E15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2017,6 +2041,9 @@
       </c>
       <c r="E16" t="s">
         <v>64</v>
+      </c>
+      <c r="F16">
+        <v>2336</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2057,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2249,10 +2276,20 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>

--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A061CA46-0BB2-4840-9C1B-EA8C53FA2A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5DBF8-7348-0D41-AFD9-24C367372645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1080" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="2300" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETO Use" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>CL010, CL001, CL007</t>
+  </si>
+  <si>
+    <t>CL014</t>
+  </si>
+  <si>
+    <t>CL014, CL013, CL007, CL006</t>
+  </si>
+  <si>
+    <t>CL006, CL007</t>
   </si>
 </sst>
 </file>
@@ -1743,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2046,6 +2055,23 @@
         <v>2336</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>2348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2054,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2292,7 +2318,20 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5DBF8-7348-0D41-AFD9-24C367372645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EAE12F-97F2-F140-85BE-746788557626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="2300" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="2300" windowWidth="25020" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETO Use" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>CL006, CL007</t>
+  </si>
+  <si>
+    <t>CL015</t>
+  </si>
+  <si>
+    <t>CL015, CL006, CL008</t>
+  </si>
+  <si>
+    <t>Guillaume Hoareau/Austin Johnson</t>
+  </si>
+  <si>
+    <t>Hoareau/Johnson</t>
   </si>
 </sst>
 </file>
@@ -1752,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2072,6 +2084,20 @@
         <v>2348</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2080,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2333,6 +2359,30 @@
         <v>80</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EAE12F-97F2-F140-85BE-746788557626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71124AA-C0B6-FD41-8DF5-D5D38E7F18CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="2300" windowWidth="25020" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="2300" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETO Use" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Hoareau/Johnson</t>
+  </si>
+  <si>
+    <t>CL006, CL015</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
@@ -1766,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2106,9 +2109,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2383,6 +2386,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71124AA-C0B6-FD41-8DF5-D5D38E7F18CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B214B72B-8972-9F43-B7B5-57DAE0689628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="2300" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="1600" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETO Use" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -152,12 +152,6 @@
     <t>Payne Professional Funds</t>
   </si>
   <si>
-    <t>Focused US Neuromodulation: Swine Mode;</t>
-  </si>
-  <si>
-    <t>Treatment for Cervical Spine Pain/ Goat MRI Guided Focused Ultrasound</t>
-  </si>
-  <si>
     <t>Myocardial Substrate Driven Mechanistic Insight into Atrial Fabriation</t>
   </si>
   <si>
@@ -288,6 +282,18 @@
   </si>
   <si>
     <t>CL006, CL015</t>
+  </si>
+  <si>
+    <t>UH3: Focused US Neuromodulation: Swine Mode;</t>
+  </si>
+  <si>
+    <t>U18: Treatment for Cervical Spine Pain/ Goat MRI Guided Focused Ultrasound</t>
+  </si>
+  <si>
+    <t>CL007, CL015</t>
+  </si>
+  <si>
+    <t>CL015, CL006, CL007</t>
   </si>
 </sst>
 </file>
@@ -640,7 +646,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -658,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1628,10 +1634,10 @@
         <v>45328</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="2"/>
@@ -1703,7 +1709,7 @@
         <v>45359</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
         <v>26</v>
@@ -1744,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="3"/>
@@ -1770,7 +1776,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1782,44 +1788,44 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1828,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -1845,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -1862,10 +1868,10 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -1882,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
@@ -1902,7 +1908,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1916,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -1933,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -1950,10 +1956,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1967,10 +1973,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1981,13 +1987,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2001,10 +2007,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>2200</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <v>1848</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <v>2057</v>
@@ -2052,7 +2058,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -2061,10 +2067,10 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>2336</v>
@@ -2072,16 +2078,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>2348</v>
@@ -2089,16 +2095,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2109,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2207,7 +2213,7 @@
         <v>45160</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2215,7 +2221,7 @@
         <v>45162</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2223,7 +2229,7 @@
         <v>45166</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2231,7 +2237,7 @@
         <v>45194</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2247,7 +2253,7 @@
         <v>45209</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2255,7 +2261,7 @@
         <v>45225</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2263,7 +2269,7 @@
         <v>45237</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2271,7 +2277,7 @@
         <v>45244</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2279,7 +2285,7 @@
         <v>45293</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2287,7 +2293,7 @@
         <v>45295</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2295,7 +2301,7 @@
         <v>45309</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2303,7 +2309,7 @@
         <v>45328</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2311,7 +2317,7 @@
         <v>45344</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2327,7 +2333,7 @@
         <v>45359</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2335,7 +2341,7 @@
         <v>45386</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2351,7 +2357,7 @@
         <v>45428</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2359,7 +2365,7 @@
         <v>45454</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2367,7 +2373,7 @@
         <v>45481</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2375,7 +2381,7 @@
         <v>45482</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2391,7 +2397,55 @@
         <v>45545</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B214B72B-8972-9F43-B7B5-57DAE0689628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EBB386-CBDE-784C-8331-E7A8C6D67A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1600" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33780" yWindow="3760" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ETO Use" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -2115,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2448,6 +2448,38 @@
         <v>78</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ETO Use.xlsx
+++ b/ETO Use.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EBB386-CBDE-784C-8331-E7A8C6D67A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206E59E-BDA3-FA41-A661-B19F2FAD1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33780" yWindow="3760" windowWidth="25020" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -2115,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2480,6 +2480,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
